--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please check the</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compass installation and interference</t>
+          <t>No GPS Return to Home failed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Please check the</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed</t>
+          <t>Compass installation and interference</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
